--- a/example.xlsx
+++ b/example.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -498,80 +498,9 @@
         <v>商品标题</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-      <c r="I2">
-        <v>9</v>
-      </c>
-      <c r="J2">
-        <v>10</v>
-      </c>
-      <c r="K2">
-        <v>11</v>
-      </c>
-      <c r="L2">
-        <v>12</v>
-      </c>
-      <c r="M2">
-        <v>13</v>
-      </c>
-      <c r="N2">
-        <v>14</v>
-      </c>
-      <c r="O2">
-        <v>15</v>
-      </c>
-      <c r="P2">
-        <v>16</v>
-      </c>
-      <c r="Q2">
-        <v>17</v>
-      </c>
-      <c r="R2">
-        <v>18</v>
-      </c>
-      <c r="S2">
-        <v>19</v>
-      </c>
-      <c r="T2">
-        <v>20</v>
-      </c>
-      <c r="U2">
-        <v>21</v>
-      </c>
-      <c r="V2">
-        <v>22</v>
-      </c>
-      <c r="W2">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:W2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W1"/>
   </ignoredErrors>
 </worksheet>
 </file>